--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/INDIANA_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/INDIANA_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1501"/>
+  <dimension ref="A1:D1495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C35">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C36">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C39">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C46">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C50">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C68">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C70">
@@ -1330,7 +1330,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C73">
@@ -1447,7 +1447,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C82">
@@ -1920,7 +1920,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C118">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C128">
@@ -2315,7 +2315,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C148">
@@ -2502,7 +2502,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2559,7 +2559,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C166">
@@ -2746,7 +2746,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C180">
@@ -2889,7 +2889,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C191">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C195">
@@ -3019,7 +3019,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C201">
@@ -3136,12 +3136,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C210">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C213">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C215">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C220">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C227">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C230">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C237">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C242">
@@ -3570,7 +3570,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C243">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C255">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C263">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C264">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C265">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C267">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C277">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C278">
@@ -4129,7 +4129,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C286">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C292">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C293">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C294">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C295">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C307">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C308">
@@ -4433,7 +4433,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C309">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C316">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C320">
@@ -4680,7 +4680,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C328">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C332">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C334">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C336">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C337">
@@ -4823,7 +4823,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C339">
@@ -4888,7 +4888,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C344">
@@ -4971,14 +4971,14 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C350">
         <v>160</v>
       </c>
       <c r="D350">
-        <v>0.009100733746658325</v>
+        <v>0.009100733746658323</v>
       </c>
     </row>
     <row r="351">
@@ -4997,7 +4997,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C352">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C353">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C356">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C357">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C360">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C365">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C366">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C372">
@@ -5296,7 +5296,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C375">
@@ -5309,7 +5309,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C376">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C382">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C383">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C385">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C388">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C403">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C405">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C407">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C409">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C412">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C413">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C423">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C429">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C433">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C439">
@@ -6172,7 +6172,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C442">
@@ -6237,7 +6237,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C447">
@@ -6250,7 +6250,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C448">
@@ -6276,7 +6276,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C450">
@@ -6289,7 +6289,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C451">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C458">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C462">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C464">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C465">
@@ -6484,7 +6484,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C466">
@@ -6549,7 +6549,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C471">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C472">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C473">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C475">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C476">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C481">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C482">
@@ -6736,7 +6736,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C485">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C487">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C496">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C503">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C508">
@@ -7048,7 +7048,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C509">
@@ -7100,7 +7100,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C513">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C518">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C519">
@@ -7256,7 +7256,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C525">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C531">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C534">
@@ -7386,7 +7386,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C535">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C536">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C539">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C540">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C545">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C546">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C548">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C555">
@@ -7659,7 +7659,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C556">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C557">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C562">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C563">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C566">
@@ -7802,7 +7802,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C567">
@@ -8093,7 +8093,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C589">
@@ -8119,7 +8119,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C591">
@@ -8938,7 +8938,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C654">
@@ -9242,7 +9242,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C677">
@@ -9398,7 +9398,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C689">
@@ -9463,7 +9463,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C694">
@@ -9476,7 +9476,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C695">
@@ -9554,7 +9554,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C701">
@@ -9598,7 +9598,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C704">
@@ -9650,7 +9650,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C708">
@@ -9715,7 +9715,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C713">
@@ -9941,7 +9941,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C730">
@@ -9993,7 +9993,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C734">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C739">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C743">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C745">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C747">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C751">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C753">
@@ -10258,7 +10258,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C754">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C755">
@@ -10284,7 +10284,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C756">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C758">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C759">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C765">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C766">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C768">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C770">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C774">
@@ -10531,7 +10531,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C775">
@@ -10544,7 +10544,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C776">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C787">
@@ -10830,7 +10830,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C798">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C818">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C848">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C855">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C858">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C870">
@@ -11935,7 +11935,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C883">
@@ -12000,7 +12000,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C888">
@@ -12117,7 +12117,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C897">
@@ -12572,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C932">
@@ -12702,7 +12702,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C942">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C943">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C944">
@@ -12741,7 +12741,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C945">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C946">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C948">
@@ -12832,7 +12832,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C952">
@@ -12845,7 +12845,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C953">
@@ -12858,7 +12858,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C954">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C955">
@@ -12884,7 +12884,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C956">
@@ -12923,7 +12923,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C959">
@@ -12936,7 +12936,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C960">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C963">
@@ -13201,7 +13201,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C980">
@@ -13240,7 +13240,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C983">
@@ -13331,7 +13331,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C990">
@@ -13487,7 +13487,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1002">
@@ -13500,7 +13500,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1003">
@@ -13682,7 +13682,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1017">
@@ -13695,7 +13695,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1018">
@@ -13734,7 +13734,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1021">
@@ -13773,7 +13773,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1024">
@@ -13864,7 +13864,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1031">
@@ -13981,7 +13981,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1040">
@@ -14085,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1048">
@@ -14241,7 +14241,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1060">
@@ -14254,7 +14254,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1061">
@@ -14332,7 +14332,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1067">
@@ -14436,7 +14436,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1075">
@@ -14449,7 +14449,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1076">
@@ -14514,7 +14514,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1081">
@@ -14527,7 +14527,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1082">
@@ -14592,7 +14592,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1087">
@@ -14948,7 +14948,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1114">
@@ -14974,7 +14974,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1116">
@@ -15026,7 +15026,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1120">
@@ -15039,7 +15039,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1121">
@@ -15065,7 +15065,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1123">
@@ -15104,7 +15104,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1126">
@@ -15231,7 +15231,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1135">
@@ -15309,7 +15309,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1141">
@@ -15387,7 +15387,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1147">
@@ -15452,7 +15452,7 @@
     <row r="1152">
       <c r="B1152" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1152">
@@ -15504,7 +15504,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1156">
@@ -15530,7 +15530,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1158">
@@ -15647,7 +15647,7 @@
     <row r="1167">
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1167">
@@ -15660,7 +15660,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1168">
@@ -15673,7 +15673,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1169">
@@ -15686,7 +15686,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1170">
@@ -16099,7 +16099,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1201">
@@ -16312,7 +16312,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1217">
@@ -16681,7 +16681,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1245">
@@ -16855,7 +16855,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1258">
@@ -16933,7 +16933,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1264">
@@ -16959,7 +16959,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1266">
@@ -16998,7 +16998,7 @@
     <row r="1269">
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1269">
@@ -17011,7 +17011,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1270">
@@ -17050,7 +17050,7 @@
     <row r="1273">
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1273">
@@ -17089,7 +17089,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1276">
@@ -17354,7 +17354,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1296">
@@ -17406,7 +17406,7 @@
     <row r="1300">
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1300">
@@ -17497,7 +17497,7 @@
     <row r="1307">
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1307">
@@ -17549,7 +17549,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1311">
@@ -17731,7 +17731,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1325">
@@ -17744,7 +17744,7 @@
     <row r="1326">
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1326">
@@ -17926,7 +17926,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1340">
@@ -17939,7 +17939,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1341">
@@ -17978,7 +17978,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1344">
@@ -17991,7 +17991,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1345">
@@ -18004,7 +18004,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1346">
@@ -18121,7 +18121,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1355">
@@ -18160,7 +18160,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1358">
@@ -18199,7 +18199,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1361">
@@ -18212,7 +18212,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1362">
@@ -18264,7 +18264,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1366">
@@ -18290,7 +18290,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1368">
@@ -18472,7 +18472,7 @@
     <row r="1382">
       <c r="B1382" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1382">
@@ -18524,7 +18524,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1386">
@@ -18537,7 +18537,7 @@
     <row r="1387">
       <c r="B1387" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1387">
@@ -18576,7 +18576,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1390">
@@ -18654,7 +18654,7 @@
     <row r="1396">
       <c r="B1396" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1396">
@@ -18667,7 +18667,7 @@
     <row r="1397">
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1397">
@@ -18940,7 +18940,7 @@
     <row r="1418">
       <c r="B1418" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1418">
@@ -19070,7 +19070,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1428">
@@ -19174,7 +19174,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1436">
@@ -19379,7 +19379,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1451">
@@ -19626,7 +19626,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1470">
@@ -19639,7 +19639,7 @@
     <row r="1471">
       <c r="B1471" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1471">
@@ -19652,7 +19652,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1472">
@@ -19795,7 +19795,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1483">
@@ -19808,7 +19808,7 @@
     <row r="1484">
       <c r="B1484" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1484">
@@ -19860,7 +19860,7 @@
     <row r="1488">
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1488">
@@ -19959,41 +19959,6 @@
       </c>
       <c r="D1495">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1497">
-      <c r="A1497" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1498">
-      <c r="A1498" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1499">
-      <c r="A1499" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1500">
-      <c r="A1500" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1501">
-      <c r="A1501" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
